--- a/GB Accounts 2023-24/GB Accounts Company 2024-03-31 (Mar24) Excel 2007/Fixedassets.xlsx
+++ b/GB Accounts 2023-24/GB Accounts Company 2024-03-31 (Mar24) Excel 2007/Fixedassets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Downloads\GB Accounts Company 2023-03-31 (Mar23) Excel 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2023-24/GB Accounts Company 2024-03-31 (Mar24) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE83B4-88DB-48D3-A03D-BE416C68F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF1600-82DE-AA4B-BB50-53CB0849E56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="16980" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="11" r:id="rId1"/>
@@ -347,6 +347,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -368,11 +369,13 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -401,6 +404,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -422,11 +426,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1036,31 +1042,55 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1086,8 +1116,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1101,56 +1134,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
@@ -1187,26 +1214,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1214,20 +1229,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,20 +1270,7 @@
       <sheetName val="Admin"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="13">
-          <cell r="G13"/>
-          <cell r="H13"/>
-          <cell r="I13"/>
-          <cell r="J13"/>
-          <cell r="K13"/>
-          <cell r="M13"/>
-          <cell r="N13"/>
-          <cell r="O13"/>
-          <cell r="P13"/>
-          <cell r="Q13"/>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -1296,7 +1289,7 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>44652</v>
+            <v>45017</v>
           </cell>
         </row>
         <row r="7">
@@ -1304,7 +1297,7 @@
             <v>100</v>
           </cell>
           <cell r="N7">
-            <v>45016</v>
+            <v>45382</v>
           </cell>
         </row>
         <row r="11">
@@ -1315,7 +1308,7 @@
             <v>3000</v>
           </cell>
           <cell r="N11">
-            <v>45016</v>
+            <v>45382</v>
           </cell>
         </row>
       </sheetData>
@@ -1342,7 +1335,6 @@
       <sheetName val="Feb23"/>
       <sheetName val="Mar23"/>
       <sheetName val="ClosingCreditors"/>
-      <sheetName val="Apr21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1365,7 +1357,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1389,7 +1380,6 @@
       <sheetName val="Feb23"/>
       <sheetName val="Mar23"/>
       <sheetName val="ClosingDebtors"/>
-      <sheetName val="Apr21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1412,7 +1402,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1747,45 +1736,45 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="79" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="0.83203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="88" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="4"/>
-    <col min="22" max="22" width="10.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="1.7109375" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="16" width="5.6640625" style="88" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="0.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="4"/>
+    <col min="22" max="22" width="10.6640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="3" customWidth="1"/>
+    <col min="25" max="26" width="9.1640625" style="2"/>
+    <col min="27" max="27" width="1.6640625" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133"/>
-      <c r="B1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="135" t="s">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="141"/>
+      <c r="B1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="136"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="61">
         <f>E57+E110</f>
         <v>0</v>
@@ -1798,7 +1787,7 @@
         <f>G57+G110</f>
         <v>0</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="152" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="19">
@@ -1813,16 +1802,16 @@
         <f>K57+K110</f>
         <v>0</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="122" t="s">
+      <c r="L1" s="128"/>
+      <c r="M1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="149"/>
+      <c r="N1" s="128"/>
       <c r="O1" s="19">
         <f>O57+O110</f>
         <v>0</v>
       </c>
-      <c r="P1" s="154" t="s">
+      <c r="P1" s="133" t="s">
         <v>63</v>
       </c>
       <c r="Q1" s="19">
@@ -1837,8 +1826,8 @@
         <f>S57+S110</f>
         <v>0</v>
       </c>
-      <c r="T1" s="149"/>
-      <c r="U1" s="145" t="s">
+      <c r="T1" s="128"/>
+      <c r="U1" s="121" t="s">
         <v>31</v>
       </c>
       <c r="V1" s="19">
@@ -1863,150 +1852,150 @@
       </c>
       <c r="AA1" s="20"/>
     </row>
-    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="146" t="s">
+    <row r="2" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="142"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="137" t="s">
+      <c r="H2" s="154"/>
+      <c r="I2" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="127" t="s">
+      <c r="K2" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="127" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="127" t="s">
+      <c r="P2" s="134"/>
+      <c r="Q2" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="127" t="s">
+      <c r="R2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="127" t="s">
+      <c r="S2" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="156"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="143" t="s">
+      <c r="T2" s="135"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="143" t="s">
+      <c r="W2" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="143" t="s">
+      <c r="X2" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="144" t="s">
+      <c r="Y2" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="144" t="s">
+      <c r="Z2" s="120" t="s">
         <v>50</v>
       </c>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
+    <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="142"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="1:27" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="144"/>
+    <row r="4" spans="1:27" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="142"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="111">
         <f>D6</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="G4" s="111">
         <f>D6</f>
-        <v>44652</v>
-      </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="137"/>
+        <v>45017</v>
+      </c>
+      <c r="H4" s="154"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="111">
         <f>[1]Admin!$N$7</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="K4" s="111">
         <f>J4</f>
-        <v>45016</v>
-      </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="151"/>
+        <v>45382</v>
+      </c>
+      <c r="L4" s="130"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="130"/>
       <c r="O4" s="110">
         <f>D6</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="P4" s="119">
         <v>100</v>
       </c>
-      <c r="Q4" s="153"/>
+      <c r="Q4" s="132"/>
       <c r="R4" s="118">
         <v>20</v>
       </c>
       <c r="S4" s="110">
         <f>J4</f>
-        <v>45016</v>
-      </c>
-      <c r="T4" s="156"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
+        <v>45382</v>
+      </c>
+      <c r="T4" s="135"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
       <c r="AA4" s="22"/>
     </row>
-    <row r="5" spans="1:27" s="15" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="15" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99"/>
       <c r="B5" s="54"/>
       <c r="C5" s="73"/>
@@ -2035,17 +2024,17 @@
       <c r="Z5" s="56"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="100"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="139">
+      <c r="C6" s="147"/>
+      <c r="D6" s="148">
         <f>[1]Admin!$L$6</f>
-        <v>44652</v>
-      </c>
-      <c r="E6" s="140"/>
+        <v>45017</v>
+      </c>
+      <c r="E6" s="149"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -2069,12 +2058,12 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="100"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="29"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2102,7 +2091,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="100"/>
       <c r="B8" s="41"/>
       <c r="C8" s="74"/>
@@ -2152,7 +2141,7 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="100"/>
       <c r="B9" s="41"/>
       <c r="C9" s="74"/>
@@ -2202,7 +2191,7 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="21"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="41"/>
       <c r="C10" s="74"/>
@@ -2252,14 +2241,14 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
-      <c r="B11" s="130" t="str">
+      <c r="B11" s="138" t="str">
         <f>IF((E11-F11)=([1]OpenAccounts!$G$13-[1]OpenAccounts!$M$13),"Existing Land &amp; Property","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Land &amp; Property</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="40">
         <f>SUM(E8:E10)</f>
         <v>0</v>
@@ -2329,7 +2318,7 @@
       </c>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="36"/>
       <c r="C12" s="75"/>
@@ -2358,12 +2347,12 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="31"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2391,7 +2380,7 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="100"/>
       <c r="B14" s="41"/>
       <c r="C14" s="74"/>
@@ -2453,7 +2442,7 @@
       </c>
       <c r="AA14" s="21"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="100"/>
       <c r="B15" s="41"/>
       <c r="C15" s="74"/>
@@ -2515,7 +2504,7 @@
       </c>
       <c r="AA15" s="21"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="100"/>
       <c r="B16" s="41"/>
       <c r="C16" s="74"/>
@@ -2577,7 +2566,7 @@
       </c>
       <c r="AA16" s="21"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="100"/>
       <c r="B17" s="41"/>
       <c r="C17" s="74"/>
@@ -2639,7 +2628,7 @@
       </c>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="100"/>
       <c r="B18" s="41"/>
       <c r="C18" s="74"/>
@@ -2701,7 +2690,7 @@
       </c>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="100"/>
       <c r="B19" s="41"/>
       <c r="C19" s="74"/>
@@ -2763,7 +2752,7 @@
       </c>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" s="100"/>
       <c r="B20" s="41"/>
       <c r="C20" s="74"/>
@@ -2825,7 +2814,7 @@
       </c>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="100"/>
       <c r="B21" s="41"/>
       <c r="C21" s="74"/>
@@ -2887,14 +2876,14 @@
       </c>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="100"/>
-      <c r="B22" s="130" t="str">
+      <c r="B22" s="138" t="str">
         <f>IF((E22-F22)=([1]OpenAccounts!$H$13-[1]OpenAccounts!$N$13),"Existing Plant &amp; Machinery", "Check Opening Balance Sheet figures agree")</f>
         <v>Existing Plant &amp; Machinery</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="40">
         <f>SUM(E14:E21)</f>
         <v>0</v>
@@ -2964,7 +2953,7 @@
       </c>
       <c r="AA22" s="21"/>
     </row>
-    <row r="23" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="100"/>
       <c r="B23" s="36"/>
       <c r="C23" s="75"/>
@@ -2993,12 +2982,12 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" s="100"/>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="31"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3026,7 +3015,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="21"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="100"/>
       <c r="B25" s="41"/>
       <c r="C25" s="74"/>
@@ -3088,7 +3077,7 @@
       </c>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A26" s="100"/>
       <c r="B26" s="41"/>
       <c r="C26" s="74"/>
@@ -3150,7 +3139,7 @@
       </c>
       <c r="AA26" s="21"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" s="100"/>
       <c r="B27" s="41"/>
       <c r="C27" s="74"/>
@@ -3212,7 +3201,7 @@
       </c>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="100"/>
       <c r="B28" s="41"/>
       <c r="C28" s="74"/>
@@ -3274,7 +3263,7 @@
       </c>
       <c r="AA28" s="21"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" s="100"/>
       <c r="B29" s="41"/>
       <c r="C29" s="74"/>
@@ -3336,14 +3325,14 @@
       </c>
       <c r="AA29" s="21"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" s="100"/>
-      <c r="B30" s="130" t="str">
+      <c r="B30" s="138" t="str">
         <f>IF((E30-F30)=([1]OpenAccounts!$I$13-[1]OpenAccounts!$O$13),"Existing Fixtures &amp; Fittings","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Fixtures &amp; Fittings</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
       <c r="E30" s="40">
         <f>SUM(E25:E29)</f>
         <v>0</v>
@@ -3413,7 +3402,7 @@
       </c>
       <c r="AA30" s="21"/>
     </row>
-    <row r="31" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="100"/>
       <c r="B31" s="36"/>
       <c r="C31" s="75"/>
@@ -3442,12 +3431,12 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="21"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="100"/>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="129"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="32"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -3475,7 +3464,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="21"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="100"/>
       <c r="B33" s="41"/>
       <c r="C33" s="74"/>
@@ -3537,7 +3526,7 @@
       </c>
       <c r="AA33" s="21"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="100"/>
       <c r="B34" s="41"/>
       <c r="C34" s="74"/>
@@ -3599,7 +3588,7 @@
       </c>
       <c r="AA34" s="21"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="100"/>
       <c r="B35" s="41"/>
       <c r="C35" s="74"/>
@@ -3661,7 +3650,7 @@
       </c>
       <c r="AA35" s="21"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="100"/>
       <c r="B36" s="41"/>
       <c r="C36" s="74"/>
@@ -3723,7 +3712,7 @@
       </c>
       <c r="AA36" s="21"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37" s="100"/>
       <c r="B37" s="41"/>
       <c r="C37" s="74"/>
@@ -3785,7 +3774,7 @@
       </c>
       <c r="AA37" s="21"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38" s="100"/>
       <c r="B38" s="41"/>
       <c r="C38" s="74"/>
@@ -3847,7 +3836,7 @@
       </c>
       <c r="AA38" s="21"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="100"/>
       <c r="B39" s="41"/>
       <c r="C39" s="74"/>
@@ -3909,7 +3898,7 @@
       </c>
       <c r="AA39" s="21"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="100"/>
       <c r="B40" s="41"/>
       <c r="C40" s="74"/>
@@ -3971,14 +3960,14 @@
       </c>
       <c r="AA40" s="21"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" s="100"/>
-      <c r="B41" s="130" t="str">
+      <c r="B41" s="138" t="str">
         <f>IF((E41-F41)=([1]OpenAccounts!$J$13-[1]OpenAccounts!$P$13),"Existing Computers","Check Opening Balkance Sheet figures agree")</f>
         <v>Existing Computers</v>
       </c>
-      <c r="C41" s="131"/>
-      <c r="D41" s="132"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="40">
         <f>SUM(E33:E40)</f>
         <v>0</v>
@@ -4048,7 +4037,7 @@
       </c>
       <c r="AA41" s="21"/>
     </row>
-    <row r="42" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="100"/>
       <c r="B42" s="36"/>
       <c r="C42" s="75"/>
@@ -4077,12 +4066,12 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="21"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43" s="100"/>
-      <c r="B43" s="129" t="s">
+      <c r="B43" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="129"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="32"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -4110,7 +4099,7 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="21"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44" s="100"/>
       <c r="B44" s="41"/>
       <c r="C44" s="74"/>
@@ -4174,7 +4163,7 @@
       </c>
       <c r="AA44" s="21"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" s="100"/>
       <c r="B45" s="41"/>
       <c r="C45" s="74"/>
@@ -4238,7 +4227,7 @@
       </c>
       <c r="AA45" s="21"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" s="100"/>
       <c r="B46" s="41"/>
       <c r="C46" s="74"/>
@@ -4302,7 +4291,7 @@
       </c>
       <c r="AA46" s="21"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A47" s="100"/>
       <c r="B47" s="41"/>
       <c r="C47" s="74"/>
@@ -4366,7 +4355,7 @@
       </c>
       <c r="AA47" s="21"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A48" s="100"/>
       <c r="B48" s="41"/>
       <c r="C48" s="74"/>
@@ -4430,12 +4419,12 @@
       </c>
       <c r="AA48" s="21"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A49" s="100"/>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="129"/>
+      <c r="C49" s="137"/>
       <c r="D49" s="31"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -4461,7 +4450,7 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="21"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A50" s="100"/>
       <c r="B50" s="41"/>
       <c r="C50" s="74"/>
@@ -4525,7 +4514,7 @@
       </c>
       <c r="AA50" s="21"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A51" s="100"/>
       <c r="B51" s="41"/>
       <c r="C51" s="74"/>
@@ -4589,7 +4578,7 @@
       </c>
       <c r="AA51" s="21"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A52" s="100"/>
       <c r="B52" s="41"/>
       <c r="C52" s="74"/>
@@ -4653,7 +4642,7 @@
       </c>
       <c r="AA52" s="21"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A53" s="100"/>
       <c r="B53" s="41"/>
       <c r="C53" s="74"/>
@@ -4717,7 +4706,7 @@
       </c>
       <c r="AA53" s="21"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A54" s="100"/>
       <c r="B54" s="41"/>
       <c r="C54" s="74"/>
@@ -4781,14 +4770,14 @@
       </c>
       <c r="AA54" s="21"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A55" s="100"/>
-      <c r="B55" s="130" t="str">
+      <c r="B55" s="138" t="str">
         <f>IF((E55-F55)=([1]OpenAccounts!$K$13-[1]OpenAccounts!$Q$13),"Existing Motor Vehicles","Check Opening Balance Sheet figures agree")</f>
         <v>Existing Motor Vehicles</v>
       </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="40">
         <f>SUM(E44:E54)</f>
         <v>0</v>
@@ -4858,7 +4847,7 @@
       </c>
       <c r="AA55" s="21"/>
     </row>
-    <row r="56" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
       <c r="B56" s="12"/>
       <c r="C56" s="76"/>
@@ -4887,16 +4876,16 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="21"/>
     </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="100"/>
-      <c r="B57" s="120" t="str">
+      <c r="B57" s="146" t="str">
         <f>B6</f>
         <v xml:space="preserve">EXISTING FIXED ASSETS AT </v>
       </c>
-      <c r="C57" s="121"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="115">
         <f>D6</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="E57" s="18">
         <f>E11+E22+E30+E41+E55</f>
@@ -4967,7 +4956,7 @@
       </c>
       <c r="AA57" s="21"/>
     </row>
-    <row r="58" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="100"/>
       <c r="B58" s="14"/>
       <c r="C58" s="77"/>
@@ -4996,22 +4985,22 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="21"/>
     </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="100"/>
-      <c r="B59" s="141" t="s">
+      <c r="B59" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="142"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="116">
         <f>D57</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="E59" s="113" t="s">
         <v>59</v>
       </c>
       <c r="F59" s="117">
         <f>J4</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="G59" s="114"/>
       <c r="H59" s="13"/>
@@ -5035,12 +5024,12 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="21"/>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="100"/>
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="129"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="29"/>
       <c r="E60" s="8"/>
       <c r="F60" s="114"/>
@@ -5069,7 +5058,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="21"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A61" s="100"/>
       <c r="B61" s="41"/>
       <c r="C61" s="74"/>
@@ -5116,7 +5105,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="21"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A62" s="100"/>
       <c r="B62" s="41"/>
       <c r="C62" s="74"/>
@@ -5163,7 +5152,7 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="21"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A63" s="100"/>
       <c r="B63" s="41"/>
       <c r="C63" s="74"/>
@@ -5210,13 +5199,13 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="21"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A64" s="100"/>
-      <c r="B64" s="130" t="s">
+      <c r="B64" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="131"/>
-      <c r="D64" s="132"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="40">
         <f>SUM(E61:E63)</f>
         <v>0</v>
@@ -5286,7 +5275,7 @@
       </c>
       <c r="AA64" s="21"/>
     </row>
-    <row r="65" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="100"/>
       <c r="B65" s="36"/>
       <c r="C65" s="75"/>
@@ -5315,12 +5304,12 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="21"/>
     </row>
-    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="100"/>
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="129"/>
+      <c r="C66" s="137"/>
       <c r="D66" s="31"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -5349,7 +5338,7 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="21"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A67" s="100"/>
       <c r="B67" s="41"/>
       <c r="C67" s="74"/>
@@ -5411,7 +5400,7 @@
       </c>
       <c r="AA67" s="21"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A68" s="100"/>
       <c r="B68" s="41"/>
       <c r="C68" s="74"/>
@@ -5473,7 +5462,7 @@
       </c>
       <c r="AA68" s="21"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A69" s="100"/>
       <c r="B69" s="41"/>
       <c r="C69" s="74"/>
@@ -5535,7 +5524,7 @@
       </c>
       <c r="AA69" s="21"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A70" s="100"/>
       <c r="B70" s="41"/>
       <c r="C70" s="74"/>
@@ -5597,7 +5586,7 @@
       </c>
       <c r="AA70" s="21"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A71" s="100"/>
       <c r="B71" s="41"/>
       <c r="C71" s="74"/>
@@ -5659,7 +5648,7 @@
       </c>
       <c r="AA71" s="21"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A72" s="100"/>
       <c r="B72" s="41"/>
       <c r="C72" s="74"/>
@@ -5721,7 +5710,7 @@
       </c>
       <c r="AA72" s="21"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A73" s="100"/>
       <c r="B73" s="41"/>
       <c r="C73" s="74"/>
@@ -5783,7 +5772,7 @@
       </c>
       <c r="AA73" s="21"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A74" s="100"/>
       <c r="B74" s="41"/>
       <c r="C74" s="74"/>
@@ -5845,13 +5834,13 @@
       </c>
       <c r="AA74" s="21"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A75" s="100"/>
-      <c r="B75" s="130" t="s">
+      <c r="B75" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="131"/>
-      <c r="D75" s="132"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="140"/>
       <c r="E75" s="40">
         <f>SUM(E67:E74)</f>
         <v>0</v>
@@ -5921,7 +5910,7 @@
       </c>
       <c r="AA75" s="21"/>
     </row>
-    <row r="76" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="100"/>
       <c r="B76" s="36"/>
       <c r="C76" s="75"/>
@@ -5950,12 +5939,12 @@
       <c r="Z76" s="7"/>
       <c r="AA76" s="21"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A77" s="100"/>
-      <c r="B77" s="129" t="s">
+      <c r="B77" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="129"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="31"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -5984,7 +5973,7 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="21"/>
     </row>
-    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="100"/>
       <c r="B78" s="41"/>
       <c r="C78" s="74"/>
@@ -6046,7 +6035,7 @@
       </c>
       <c r="AA78" s="21"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A79" s="100"/>
       <c r="B79" s="41"/>
       <c r="C79" s="74"/>
@@ -6108,7 +6097,7 @@
       </c>
       <c r="AA79" s="21"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A80" s="100"/>
       <c r="B80" s="41"/>
       <c r="C80" s="74"/>
@@ -6170,7 +6159,7 @@
       </c>
       <c r="AA80" s="21"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A81" s="100"/>
       <c r="B81" s="41"/>
       <c r="C81" s="74"/>
@@ -6232,7 +6221,7 @@
       </c>
       <c r="AA81" s="21"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A82" s="100"/>
       <c r="B82" s="41"/>
       <c r="C82" s="74"/>
@@ -6294,13 +6283,13 @@
       </c>
       <c r="AA82" s="21"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A83" s="100"/>
-      <c r="B83" s="130" t="s">
+      <c r="B83" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="132"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="140"/>
       <c r="E83" s="40">
         <f>SUM(E78:E82)</f>
         <v>0</v>
@@ -6370,7 +6359,7 @@
       </c>
       <c r="AA83" s="21"/>
     </row>
-    <row r="84" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="100"/>
       <c r="B84" s="36"/>
       <c r="C84" s="75"/>
@@ -6399,12 +6388,12 @@
       <c r="Z84" s="7"/>
       <c r="AA84" s="21"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A85" s="100"/>
-      <c r="B85" s="129" t="s">
+      <c r="B85" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="129"/>
+      <c r="C85" s="137"/>
       <c r="D85" s="32"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6433,7 +6422,7 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="21"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A86" s="100"/>
       <c r="B86" s="41"/>
       <c r="C86" s="74"/>
@@ -6495,7 +6484,7 @@
       </c>
       <c r="AA86" s="21"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A87" s="100"/>
       <c r="B87" s="41"/>
       <c r="C87" s="74"/>
@@ -6557,7 +6546,7 @@
       </c>
       <c r="AA87" s="21"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A88" s="100"/>
       <c r="B88" s="41"/>
       <c r="C88" s="74"/>
@@ -6619,7 +6608,7 @@
       </c>
       <c r="AA88" s="21"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A89" s="100"/>
       <c r="B89" s="41"/>
       <c r="C89" s="74"/>
@@ -6681,7 +6670,7 @@
       </c>
       <c r="AA89" s="21"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A90" s="100"/>
       <c r="B90" s="41"/>
       <c r="C90" s="74"/>
@@ -6743,7 +6732,7 @@
       </c>
       <c r="AA90" s="21"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A91" s="100"/>
       <c r="B91" s="41"/>
       <c r="C91" s="74"/>
@@ -6805,7 +6794,7 @@
       </c>
       <c r="AA91" s="21"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A92" s="100"/>
       <c r="B92" s="41"/>
       <c r="C92" s="74"/>
@@ -6867,7 +6856,7 @@
       </c>
       <c r="AA92" s="21"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A93" s="100"/>
       <c r="B93" s="41"/>
       <c r="C93" s="74"/>
@@ -6929,13 +6918,13 @@
       </c>
       <c r="AA93" s="21"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A94" s="100"/>
-      <c r="B94" s="130" t="s">
+      <c r="B94" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="131"/>
-      <c r="D94" s="132"/>
+      <c r="C94" s="139"/>
+      <c r="D94" s="140"/>
       <c r="E94" s="40">
         <f>SUM(E86:E93)</f>
         <v>0</v>
@@ -7005,7 +6994,7 @@
       </c>
       <c r="AA94" s="21"/>
     </row>
-    <row r="95" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="100"/>
       <c r="B95" s="36"/>
       <c r="C95" s="75"/>
@@ -7034,12 +7023,12 @@
       <c r="Z95" s="7"/>
       <c r="AA95" s="21"/>
     </row>
-    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="100"/>
-      <c r="B96" s="129" t="s">
+      <c r="B96" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="129"/>
+      <c r="C96" s="137"/>
       <c r="D96" s="32"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -7068,7 +7057,7 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="21"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A97" s="100"/>
       <c r="B97" s="41"/>
       <c r="C97" s="74"/>
@@ -7129,7 +7118,7 @@
       </c>
       <c r="AA97" s="21"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A98" s="100"/>
       <c r="B98" s="41"/>
       <c r="C98" s="74"/>
@@ -7190,7 +7179,7 @@
       </c>
       <c r="AA98" s="21"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A99" s="100"/>
       <c r="B99" s="41"/>
       <c r="C99" s="74"/>
@@ -7251,7 +7240,7 @@
       </c>
       <c r="AA99" s="21"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A100" s="100"/>
       <c r="B100" s="41"/>
       <c r="C100" s="74"/>
@@ -7312,7 +7301,7 @@
       </c>
       <c r="AA100" s="21"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A101" s="100"/>
       <c r="B101" s="41"/>
       <c r="C101" s="74"/>
@@ -7373,12 +7362,12 @@
       </c>
       <c r="AA101" s="21"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A102" s="100"/>
-      <c r="B102" s="129" t="s">
+      <c r="B102" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C102" s="129"/>
+      <c r="C102" s="137"/>
       <c r="D102" s="32"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -7404,7 +7393,7 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="21"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A103" s="100"/>
       <c r="B103" s="41"/>
       <c r="C103" s="74"/>
@@ -7468,7 +7457,7 @@
       </c>
       <c r="AA103" s="21"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A104" s="100"/>
       <c r="B104" s="41"/>
       <c r="C104" s="74"/>
@@ -7532,7 +7521,7 @@
       </c>
       <c r="AA104" s="21"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A105" s="100"/>
       <c r="B105" s="41"/>
       <c r="C105" s="74"/>
@@ -7596,7 +7585,7 @@
       </c>
       <c r="AA105" s="21"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A106" s="100"/>
       <c r="B106" s="41"/>
       <c r="C106" s="74"/>
@@ -7660,7 +7649,7 @@
       </c>
       <c r="AA106" s="21"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A107" s="100"/>
       <c r="B107" s="41"/>
       <c r="C107" s="74"/>
@@ -7724,13 +7713,13 @@
       </c>
       <c r="AA107" s="21"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A108" s="100"/>
-      <c r="B108" s="130" t="s">
+      <c r="B108" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="131"/>
-      <c r="D108" s="132"/>
+      <c r="C108" s="139"/>
+      <c r="D108" s="140"/>
       <c r="E108" s="40">
         <f>SUM(E97:E107)</f>
         <v>0</v>
@@ -7800,7 +7789,7 @@
       </c>
       <c r="AA108" s="21"/>
     </row>
-    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="100"/>
       <c r="B109" s="12"/>
       <c r="C109" s="76"/>
@@ -7829,15 +7818,15 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="21"/>
     </row>
-    <row r="110" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="100"/>
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="121"/>
+      <c r="C110" s="147"/>
       <c r="D110" s="112">
         <f>F59</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="E110" s="18">
         <f>E64+E75+E83+E94+E108</f>
@@ -7908,7 +7897,7 @@
       </c>
       <c r="AA110" s="21"/>
     </row>
-    <row r="111" spans="1:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="101"/>
       <c r="B111" s="23"/>
       <c r="C111" s="78"/>
@@ -7939,6 +7928,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="U1:U4"/>
     <mergeCell ref="C2:C4"/>
@@ -7955,44 +7982,6 @@
     <mergeCell ref="T1:T4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8022,38 +8011,38 @@
       <selection activeCell="M4" sqref="M4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="103" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="103"/>
-    <col min="4" max="4" width="3.7109375" style="103" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="103" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="103" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="103"/>
-    <col min="10" max="10" width="6.5703125" style="103" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="103" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="103" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" style="103" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" style="103" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="103"/>
+    <col min="1" max="1" width="1.6640625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="103"/>
+    <col min="4" max="4" width="3.6640625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="103" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="103" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="103"/>
+    <col min="10" max="10" width="6.5" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="103" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="103" customWidth="1"/>
+    <col min="13" max="14" width="9.6640625" style="103" customWidth="1"/>
+    <col min="15" max="15" width="1.5" style="103" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
       <c r="O1" s="70"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8065,17 +8054,17 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63"/>
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="170"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="177"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -8093,7 +8082,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
@@ -8119,7 +8108,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="63"/>
       <c r="B4" s="105" t="s">
         <v>51</v>
@@ -8130,20 +8119,20 @@
         <v>3</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="177" t="s">
+      <c r="G4" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="49"/>
       <c r="K4" s="106" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="49"/>
-      <c r="M4" s="174" t="s">
+      <c r="M4" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="175"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="71"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8155,7 +8144,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="63"/>
       <c r="B5" s="46" t="s">
         <v>18</v>
@@ -8172,8 +8161,8 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="71"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -8185,31 +8174,31 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="63"/>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="52">
         <f>Schedule!E64</f>
         <v>0</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="52">
         <f>Schedule!V11+Schedule!V64</f>
         <v>0</v>
       </c>
       <c r="L6" s="49"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="71"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -8221,31 +8210,31 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="63"/>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="173"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="52">
         <f>Schedule!E75</f>
         <v>0</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="159" t="s">
+      <c r="G7" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="168"/>
       <c r="K7" s="52">
         <f>Schedule!V22+Schedule!V75</f>
         <v>0</v>
       </c>
       <c r="L7" s="49"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="71"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -8257,31 +8246,31 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="63"/>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="173"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="52">
         <f>Schedule!E83</f>
         <v>0</v>
       </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="52">
         <f>Schedule!V30+Schedule!V83</f>
         <v>0</v>
       </c>
       <c r="L8" s="49"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="71"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -8293,31 +8282,31 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="63"/>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="173"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="52">
         <f>Schedule!E94</f>
         <v>0</v>
       </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="168"/>
       <c r="K9" s="52">
         <f>Schedule!V41+Schedule!V94</f>
         <v>0</v>
       </c>
       <c r="L9" s="49"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
       <c r="O9" s="71"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8329,31 +8318,31 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63"/>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="173"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="52">
         <f>Schedule!E108</f>
         <v>0</v>
       </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="168"/>
       <c r="K10" s="52">
         <f>Schedule!V55+Schedule!V108</f>
         <v>0</v>
       </c>
       <c r="L10" s="49"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
       <c r="O10" s="71"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -8365,31 +8354,31 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="53">
         <f>SUM(E6:E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
       <c r="K11" s="53">
         <f>SUM(K6:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="49"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
       <c r="O11" s="71"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -8401,7 +8390,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -8414,8 +8403,8 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
       <c r="O12" s="71"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8427,31 +8416,31 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="53">
         <f>[2]Mar23!$AI$2</f>
         <v>0</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="165" t="s">
+      <c r="G13" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="53">
         <f>[3]Mar23!$U$2</f>
         <v>0</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
       <c r="O13" s="71"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8463,7 +8452,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
@@ -8476,8 +8465,8 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
       <c r="O14" s="71"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -8489,33 +8478,33 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
-      <c r="B15" s="162" t="str">
+      <c r="B15" s="169" t="str">
         <f>IF(E15&gt;0,"Purchases exceed Assets listed on Schedule",IF(E15&lt;0,"Assets listed on Schedule exceed Purchase values","Purchases reconcile with Fixed asset Schedule"))</f>
         <v>Purchases reconcile with Fixed asset Schedule</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="164"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="104">
         <f>E13-E11</f>
         <v>0</v>
       </c>
       <c r="F15" s="49"/>
-      <c r="G15" s="162" t="str">
+      <c r="G15" s="169" t="str">
         <f>IF(K15&gt;0,"Sales exceed Assets listed on Schedule",IF(K15&lt;0,"Assets listed on Schedule exceed Sales values","Sales reconcile with Fixed asset Schedule"))</f>
         <v>Sales reconcile with Fixed asset Schedule</v>
       </c>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="104">
         <f>K13-K11</f>
         <v>0</v>
       </c>
       <c r="L15" s="49"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
       <c r="O15" s="71"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -8527,7 +8516,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="64"/>
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
@@ -8555,6 +8544,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="M4:N15"/>
@@ -8571,10 +8564,6 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8597,21 +8586,21 @@
       <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="82" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="82" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="88" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" style="86" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" style="82" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="82"/>
+    <col min="1" max="1" width="1.5" style="82" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="82" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="88" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="86" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="1.5" style="82" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90"/>
       <c r="B1" s="46"/>
       <c r="C1" s="48"/>
@@ -8626,29 +8615,29 @@
       <c r="L1" s="48"/>
       <c r="M1" s="90"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="90"/>
       <c r="B2" s="80"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="83">
         <f>SUM(E8:E26)</f>
         <v>0</v>
       </c>
       <c r="F2" s="81"/>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="87"/>
       <c r="M2" s="90"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="90"/>
       <c r="B3" s="94" t="s">
         <v>39</v>
@@ -8657,15 +8646,15 @@
       <c r="D3" s="95"/>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
       <c r="L3" s="87"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="90"/>
       <c r="B4" s="12"/>
       <c r="C4" s="31"/>
@@ -8680,48 +8669,48 @@
       <c r="L4" s="96"/>
       <c r="M4" s="90"/>
     </row>
-    <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="93"/>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="182" t="s">
+      <c r="E5" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="182" t="s">
+      <c r="F5" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="182" t="s">
+      <c r="I5" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="183"/>
-      <c r="K5" s="183"/>
-      <c r="L5" s="148" t="s">
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="125" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="93"/>
     </row>
-    <row r="6" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="93"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
       <c r="I6" s="84" t="s">
         <v>34</v>
       </c>
@@ -8731,10 +8720,10 @@
       <c r="K6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="186"/>
+      <c r="L6" s="180"/>
       <c r="M6" s="93"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="90"/>
       <c r="B7" s="12"/>
       <c r="C7" s="31"/>
@@ -8749,7 +8738,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="90"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="90"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -8773,7 +8762,7 @@
       <c r="L8" s="42"/>
       <c r="M8" s="90"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="90"/>
       <c r="B9" s="12"/>
       <c r="C9" s="31"/>
@@ -8788,7 +8777,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="90"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="90"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -8812,7 +8801,7 @@
       <c r="L10" s="42"/>
       <c r="M10" s="90"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="90"/>
       <c r="B11" s="12"/>
       <c r="C11" s="31"/>
@@ -8827,7 +8816,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="90"/>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -8851,7 +8840,7 @@
       <c r="L12" s="42"/>
       <c r="M12" s="90"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="90"/>
       <c r="B13" s="12"/>
       <c r="C13" s="31"/>
@@ -8866,7 +8855,7 @@
       <c r="L13" s="31"/>
       <c r="M13" s="90"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="90"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -8890,7 +8879,7 @@
       <c r="L14" s="42"/>
       <c r="M14" s="90"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="90"/>
       <c r="B15" s="12"/>
       <c r="C15" s="31"/>
@@ -8905,7 +8894,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="90"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="90"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -8929,7 +8918,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="90"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="90"/>
       <c r="B17" s="12"/>
       <c r="C17" s="31"/>
@@ -8944,7 +8933,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="90"/>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="90"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -8968,7 +8957,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="90"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="90"/>
       <c r="B19" s="12"/>
       <c r="C19" s="31"/>
@@ -8983,7 +8972,7 @@
       <c r="L19" s="31"/>
       <c r="M19" s="90"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="90"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -9007,7 +8996,7 @@
       <c r="L20" s="42"/>
       <c r="M20" s="90"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="90"/>
       <c r="B21" s="12"/>
       <c r="C21" s="31"/>
@@ -9022,7 +9011,7 @@
       <c r="L21" s="31"/>
       <c r="M21" s="90"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="90"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -9046,7 +9035,7 @@
       <c r="L22" s="42"/>
       <c r="M22" s="90"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="90"/>
       <c r="B23" s="12"/>
       <c r="C23" s="31"/>
@@ -9061,7 +9050,7 @@
       <c r="L23" s="31"/>
       <c r="M23" s="90"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="90"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -9085,7 +9074,7 @@
       <c r="L24" s="42"/>
       <c r="M24" s="90"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="90"/>
       <c r="B25" s="12"/>
       <c r="C25" s="31"/>
@@ -9100,7 +9089,7 @@
       <c r="L25" s="31"/>
       <c r="M25" s="90"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="90"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -9124,7 +9113,7 @@
       <c r="L26" s="42"/>
       <c r="M26" s="90"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="90"/>
       <c r="B27" s="12"/>
       <c r="C27" s="31"/>
@@ -9139,7 +9128,7 @@
       <c r="L27" s="31"/>
       <c r="M27" s="90"/>
     </row>
-    <row r="28" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="90"/>
       <c r="B28" s="46"/>
       <c r="C28" s="48"/>
@@ -9154,7 +9143,7 @@
       <c r="L28" s="48"/>
       <c r="M28" s="90"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="90"/>
       <c r="B29" s="94" t="s">
         <v>40</v>
@@ -9173,7 +9162,7 @@
       <c r="L29" s="31"/>
       <c r="M29" s="90"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="90"/>
       <c r="B30" s="12"/>
       <c r="C30" s="31"/>
@@ -9188,48 +9177,48 @@
       <c r="L30" s="31"/>
       <c r="M30" s="90"/>
     </row>
-    <row r="31" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="93"/>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="182" t="s">
+      <c r="E31" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="182" t="s">
+      <c r="F31" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="182" t="s">
+      <c r="G31" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="148" t="s">
+      <c r="H31" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="182" t="s">
+      <c r="I31" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="148" t="s">
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="125" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="93"/>
     </row>
-    <row r="32" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="93"/>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
       <c r="I32" s="84" t="s">
         <v>34</v>
       </c>
@@ -9239,10 +9228,10 @@
       <c r="K32" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="186"/>
+      <c r="L32" s="180"/>
       <c r="M32" s="93"/>
     </row>
-    <row r="33" spans="1:13" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="93"/>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
@@ -9257,7 +9246,7 @@
       <c r="L33" s="98"/>
       <c r="M33" s="93"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="90"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -9281,7 +9270,7 @@
       <c r="L34" s="42"/>
       <c r="M34" s="90"/>
     </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="90"/>
       <c r="B35" s="12"/>
       <c r="C35" s="31"/>
@@ -9296,7 +9285,7 @@
       <c r="L35" s="31"/>
       <c r="M35" s="90"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="90"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -9320,7 +9309,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="90"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="90"/>
       <c r="B37" s="12"/>
       <c r="C37" s="31"/>
@@ -9335,7 +9324,7 @@
       <c r="L37" s="31"/>
       <c r="M37" s="90"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="90"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -9359,7 +9348,7 @@
       <c r="L38" s="42"/>
       <c r="M38" s="90"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="90"/>
       <c r="B39" s="12"/>
       <c r="C39" s="31"/>
@@ -9374,7 +9363,7 @@
       <c r="L39" s="31"/>
       <c r="M39" s="90"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="90"/>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -9398,7 +9387,7 @@
       <c r="L40" s="42"/>
       <c r="M40" s="90"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="90"/>
       <c r="B41" s="12"/>
       <c r="C41" s="31"/>
@@ -9413,7 +9402,7 @@
       <c r="L41" s="31"/>
       <c r="M41" s="90"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="90"/>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -9437,7 +9426,7 @@
       <c r="L42" s="42"/>
       <c r="M42" s="90"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="90"/>
       <c r="B43" s="12"/>
       <c r="C43" s="31"/>
@@ -9452,7 +9441,7 @@
       <c r="L43" s="31"/>
       <c r="M43" s="90"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="90"/>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -9476,7 +9465,7 @@
       <c r="L44" s="42"/>
       <c r="M44" s="90"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="90"/>
       <c r="B45" s="12"/>
       <c r="C45" s="31"/>
@@ -9491,7 +9480,7 @@
       <c r="L45" s="31"/>
       <c r="M45" s="90"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="90"/>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -9515,7 +9504,7 @@
       <c r="L46" s="42"/>
       <c r="M46" s="90"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="90"/>
       <c r="B47" s="12"/>
       <c r="C47" s="31"/>
@@ -9530,7 +9519,7 @@
       <c r="L47" s="31"/>
       <c r="M47" s="90"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="90"/>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -9554,7 +9543,7 @@
       <c r="L48" s="42"/>
       <c r="M48" s="90"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="90"/>
       <c r="B49" s="12"/>
       <c r="C49" s="31"/>
@@ -9569,7 +9558,7 @@
       <c r="L49" s="31"/>
       <c r="M49" s="90"/>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="90"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -9593,7 +9582,7 @@
       <c r="L50" s="42"/>
       <c r="M50" s="90"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="90"/>
       <c r="B51" s="12"/>
       <c r="C51" s="31"/>
@@ -9608,7 +9597,7 @@
       <c r="L51" s="31"/>
       <c r="M51" s="90"/>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="90"/>
       <c r="B52" s="41"/>
       <c r="C52" s="42"/>
@@ -9632,7 +9621,7 @@
       <c r="L52" s="42"/>
       <c r="M52" s="90"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="90"/>
       <c r="B53" s="12"/>
       <c r="C53" s="31"/>
@@ -9647,7 +9636,7 @@
       <c r="L53" s="31"/>
       <c r="M53" s="90"/>
     </row>
-    <row r="54" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="90"/>
       <c r="B54" s="46"/>
       <c r="C54" s="48"/>
@@ -9664,6 +9653,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="I5:K5"/>
@@ -9674,16 +9673,6 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
